--- a/Mifos Automation Excels/Loan Product/4245-RBI-EI-DB-SAR-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4245-RBI-EI-DB-SAR-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>productname</t>
   </si>
@@ -248,7 +248,10 @@
     <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
   <si>
-    <t>4245-RBI-EI-DB-SAR-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER</t>
+    <t>4245-RBI-EI-DB-SAR-REC-RNI-FEE-FFConMONonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PE-1st</t>
+  </si>
+  <si>
+    <t>424a</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,8 +686,8 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>4245</v>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
